--- a/Turma Maio 2017/Aula 3/Aula Varios Ses.xlsx
+++ b/Turma Maio 2017/Aula 3/Aula Varios Ses.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Contar e Somar" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contar e Somar'!$B$8:$E$294</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contar e Somar'!$B$8:$E$8</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcMode="manual"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="106">
   <si>
     <t>NomeDaCategoria</t>
   </si>
@@ -307,9 +307,6 @@
     <t>Total 4 Trimestre</t>
   </si>
   <si>
-    <t>Total 4 Transações</t>
-  </si>
-  <si>
     <t>Total "Bebidas"</t>
   </si>
   <si>
@@ -332,16 +329,23 @@
   </si>
   <si>
     <t>Total "Condimentos no   1 Trim"</t>
+  </si>
+  <si>
+    <t>Total 4 Trimestres</t>
+  </si>
+  <si>
+    <t>Periodo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +365,13 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -389,7 +400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -412,24 +423,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,8 +503,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9218543" y="0"/>
-          <a:ext cx="1176131" cy="361629"/>
+          <a:off x="9223098" y="0"/>
+          <a:ext cx="1569555" cy="361629"/>
           <a:chOff x="9009915" y="332447"/>
           <a:chExt cx="3182085" cy="978406"/>
         </a:xfrm>
@@ -995,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I295"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,11 +1032,12 @@
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -1035,26 +1060,26 @@
     <row r="3" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1070,11 +1095,14 @@
       <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G8" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="H8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1084,7 +1112,7 @@
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>2667.6</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1093,8 +1121,14 @@
       <c r="G9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="3">
+        <f>COUNTIF(E9:E294,"Trim 1")</f>
+        <v>99</v>
+      </c>
+      <c r="I9" s="7">
+        <f>SUMIF(E9:E294,"Trim 1",D9:D294)</f>
+        <v>228031.92000000004</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
@@ -1103,7 +1137,7 @@
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>4013.1</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1112,8 +1146,14 @@
       <c r="G10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="3">
+        <f>COUNTIF(E9:E294,"Trim 2")</f>
+        <v>69</v>
+      </c>
+      <c r="I10" s="7">
+        <f>SUMIF(E9:E294,"Trim 2",D9:D294)</f>
+        <v>144799.01</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
@@ -1122,7 +1162,7 @@
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>3900</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1131,8 +1171,14 @@
       <c r="G11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3">
+        <f>COUNTIF(E9:E294,"Trim 3")</f>
+        <v>39</v>
+      </c>
+      <c r="I11" s="7">
+        <f>SUMIF(E9:E294,"Trim 3",D9:D294)</f>
+        <v>103724.22000000002</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
@@ -1141,7 +1187,7 @@
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>6000.15</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1150,8 +1196,14 @@
       <c r="G12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3">
+        <f>COUNTIF(E9:E294,"Trim 4")</f>
+        <v>79</v>
+      </c>
+      <c r="I12" s="7">
+        <f>SUMIF(E9:E294,"Trim 4",D9:D294)</f>
+        <v>132291.60999999999</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
@@ -1160,7 +1212,7 @@
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>544</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1174,17 +1226,23 @@
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="H14" s="3">
+        <f>COUNTA(E9:E294)</f>
+        <v>286</v>
+      </c>
+      <c r="I14" s="4">
+        <f>SUM(D9:D294)</f>
+        <v>608846.75999999989</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
@@ -1193,7 +1251,7 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>140</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1207,17 +1265,23 @@
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>440</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="H16" s="3">
+        <f>COUNTIF($B$9:$B$294,"Bebidas")</f>
+        <v>46</v>
+      </c>
+      <c r="I16" s="7">
+        <f>SUMIF(B9:B294,"bebidas",D9:D294)</f>
+        <v>102074.29</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
@@ -1226,17 +1290,23 @@
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>1474.41</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="H17" s="3">
+        <f>COUNTIF($B$9:$B$294,"Laticínios")</f>
+        <v>38</v>
+      </c>
+      <c r="I17" s="7">
+        <f>SUMIF(B9:B294,"Laticínios",D9:D294)</f>
+        <v>114749.75</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
@@ -1245,7 +1315,7 @@
       <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>2162</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1259,16 +1329,19 @@
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>2272</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="H19" s="3">
+        <f>COUNTIFS(B9:B294,"Condimentos",E9:E294,"Trim 1")</f>
+        <v>18</v>
+      </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1278,16 +1351,19 @@
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>3887.92</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="H20" s="3">
+        <f>COUNTIFS(B9:B294,"Frutos do MAr",E9:E294,"Trim 2")</f>
+        <v>13</v>
+      </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1297,16 +1373,19 @@
       <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>3060</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
+        <f>COUNTIFS(B9:B294,"bebidas",C9:C294,"guaraná fantástica",E9:E294,"Trim 1")</f>
+        <v>6</v>
+      </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1316,7 +1395,7 @@
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>3329.28</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1330,7 +1409,7 @@
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>3989.9</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -1344,7 +1423,7 @@
       <c r="C24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>10273.1</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1358,7 +1437,7 @@
       <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>4987.5</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -1372,7 +1451,7 @@
       <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>1500</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1386,7 +1465,7 @@
       <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>2362.5</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1400,7 +1479,7 @@
       <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>7100</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1414,7 +1493,7 @@
       <c r="C29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>705.6</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1428,7 +1507,7 @@
       <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>2128.5</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -1442,7 +1521,7 @@
       <c r="C31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>1174.5</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -1456,7 +1535,7 @@
       <c r="C32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>878.4</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -1470,7 +1549,7 @@
       <c r="C33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>2028.25</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -1484,7 +1563,7 @@
       <c r="C34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>2061.5</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -1498,7 +1577,7 @@
       <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="4">
         <v>228</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -1512,7 +1591,7 @@
       <c r="C36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>2720.8</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -1526,7 +1605,7 @@
       <c r="C37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>2424.6</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -1540,7 +1619,7 @@
       <c r="C38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="4">
         <v>1100.7</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -1554,7 +1633,7 @@
       <c r="C39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="4">
         <v>360</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -1568,7 +1647,7 @@
       <c r="C40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="4">
         <v>590.4</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -1582,7 +1661,7 @@
       <c r="C41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="4">
         <v>225.28</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -1596,7 +1675,7 @@
       <c r="C42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="4">
         <v>2970</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -1610,7 +1689,7 @@
       <c r="C43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="4">
         <v>1337.6</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -1624,7 +1703,7 @@
       <c r="C44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="4">
         <v>682</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -1638,7 +1717,7 @@
       <c r="C45" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="4">
         <v>288.22000000000003</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -1652,7 +1731,7 @@
       <c r="C46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="4">
         <v>85.4</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -1666,7 +1745,7 @@
       <c r="C47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="4">
         <v>744.6</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -1680,7 +1759,7 @@
       <c r="C48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="4">
         <v>306</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -1694,7 +1773,7 @@
       <c r="C49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="4">
         <v>68.849999999999994</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -1708,7 +1787,7 @@
       <c r="C50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="4">
         <v>162.56</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -1722,7 +1801,7 @@
       <c r="C51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="4">
         <v>1317.5</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -1736,7 +1815,7 @@
       <c r="C52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="4">
         <v>7312.12</v>
       </c>
       <c r="E52" s="3" t="s">
@@ -1750,7 +1829,7 @@
       <c r="C53" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="4">
         <v>12806.1</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -1764,7 +1843,7 @@
       <c r="C54" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="4">
         <v>25127.360000000001</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -1778,7 +1857,7 @@
       <c r="C55" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="4">
         <v>417.38</v>
       </c>
       <c r="E55" s="3" t="s">
@@ -1792,7 +1871,7 @@
       <c r="C56" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="4">
         <v>265</v>
       </c>
       <c r="E56" s="3" t="s">
@@ -1806,7 +1885,7 @@
       <c r="C57" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="4">
         <v>1393.9</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -1820,7 +1899,7 @@
       <c r="C58" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="4">
         <v>911.75</v>
       </c>
       <c r="E58" s="3" t="s">
@@ -1834,7 +1913,7 @@
       <c r="C59" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="4">
         <v>742</v>
       </c>
       <c r="E59" s="3" t="s">
@@ -1848,7 +1927,7 @@
       <c r="C60" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="4">
         <v>187.6</v>
       </c>
       <c r="E60" s="3" t="s">
@@ -1862,7 +1941,7 @@
       <c r="C61" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="4">
         <v>226.8</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -1876,7 +1955,7 @@
       <c r="C62" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="4">
         <v>2472.5</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -1890,7 +1969,7 @@
       <c r="C63" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="4">
         <v>4454.8</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -1904,7 +1983,7 @@
       <c r="C64" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="4">
         <v>2541.29</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -1918,7 +1997,7 @@
       <c r="C65" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="4">
         <v>174.15</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -1932,7 +2011,7 @@
       <c r="C66" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="4">
         <v>294</v>
       </c>
       <c r="E66" s="3" t="s">
@@ -1946,7 +2025,7 @@
       <c r="C67" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="4">
         <v>242.5</v>
       </c>
       <c r="E67" s="3" t="s">
@@ -1960,7 +2039,7 @@
       <c r="C68" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="4">
         <v>150</v>
       </c>
       <c r="E68" s="3" t="s">
@@ -1974,7 +2053,7 @@
       <c r="C69" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="4">
         <v>99.5</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -1988,7 +2067,7 @@
       <c r="C70" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="4">
         <v>176.7</v>
       </c>
       <c r="E70" s="3" t="s">
@@ -2002,7 +2081,7 @@
       <c r="C71" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="4">
         <v>1298.1199999999999</v>
       </c>
       <c r="E71" s="3" t="s">
@@ -2016,7 +2095,7 @@
       <c r="C72" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="4">
         <v>9032.6</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -2030,7 +2109,7 @@
       <c r="C73" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="4">
         <v>9868.6</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -2044,7 +2123,7 @@
       <c r="C74" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="4">
         <v>6771.6</v>
       </c>
       <c r="E74" s="3" t="s">
@@ -2058,7 +2137,7 @@
       <c r="C75" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="4">
         <v>6931.2</v>
       </c>
       <c r="E75" s="3" t="s">
@@ -2072,7 +2151,7 @@
       <c r="C76" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="4">
         <v>2681.87</v>
       </c>
       <c r="E76" s="3" t="s">
@@ -2086,7 +2165,7 @@
       <c r="C77" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="4">
         <v>2993.12</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -2100,7 +2179,7 @@
       <c r="C78" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="4">
         <v>487</v>
       </c>
       <c r="E78" s="3" t="s">
@@ -2114,7 +2193,7 @@
       <c r="C79" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="4">
         <v>1458.75</v>
       </c>
       <c r="E79" s="3" t="s">
@@ -2128,7 +2207,7 @@
       <c r="C80" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="4">
         <v>1750</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -2142,7 +2221,7 @@
       <c r="C81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="4">
         <v>750</v>
       </c>
       <c r="E81" s="3" t="s">
@@ -2156,7 +2235,7 @@
       <c r="C82" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="4">
         <v>421.2</v>
       </c>
       <c r="E82" s="3" t="s">
@@ -2170,7 +2249,7 @@
       <c r="C83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="4">
         <v>208</v>
       </c>
       <c r="E83" s="3" t="s">
@@ -2184,7 +2263,7 @@
       <c r="C84" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="4">
         <v>467.55</v>
       </c>
       <c r="E84" s="3" t="s">
@@ -2198,7 +2277,7 @@
       <c r="C85" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="4">
         <v>337.5</v>
       </c>
       <c r="E85" s="3" t="s">
@@ -2212,7 +2291,7 @@
       <c r="C86" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="4">
         <v>219.37</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -2226,7 +2305,7 @@
       <c r="C87" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="4">
         <v>529.20000000000005</v>
       </c>
       <c r="E87" s="3" t="s">
@@ -2240,7 +2319,7 @@
       <c r="C88" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="4">
         <v>2649.6</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -2254,7 +2333,7 @@
       <c r="C89" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="4">
         <v>5652</v>
       </c>
       <c r="E89" s="3" t="s">
@@ -2268,7 +2347,7 @@
       <c r="C90" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="4">
         <v>4473</v>
       </c>
       <c r="E90" s="3" t="s">
@@ -2282,7 +2361,7 @@
       <c r="C91" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="4">
         <v>1267.2</v>
       </c>
       <c r="E91" s="3" t="s">
@@ -2296,7 +2375,7 @@
       <c r="C92" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="4">
         <v>1701.87</v>
       </c>
       <c r="E92" s="3" t="s">
@@ -2310,7 +2389,7 @@
       <c r="C93" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="4">
         <v>1093.0899999999999</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -2324,7 +2403,7 @@
       <c r="C94" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="4">
         <v>1753.62</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -2338,7 +2417,7 @@
       <c r="C95" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="4">
         <v>1994.85</v>
       </c>
       <c r="E95" s="3" t="s">
@@ -2352,7 +2431,7 @@
       <c r="C96" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="4">
         <v>2835.68</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -2366,7 +2445,7 @@
       <c r="C97" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="4">
         <v>5079.6000000000004</v>
       </c>
       <c r="E97" s="3" t="s">
@@ -2380,7 +2459,7 @@
       <c r="C98" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="4">
         <v>1249.2</v>
       </c>
       <c r="E98" s="3" t="s">
@@ -2394,7 +2473,7 @@
       <c r="C99" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="4">
         <v>2061.17</v>
       </c>
       <c r="E99" s="3" t="s">
@@ -2408,7 +2487,7 @@
       <c r="C100" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="4">
         <v>504</v>
       </c>
       <c r="E100" s="3" t="s">
@@ -2422,7 +2501,7 @@
       <c r="C101" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="4">
         <v>3318</v>
       </c>
       <c r="E101" s="3" t="s">
@@ -2436,7 +2515,7 @@
       <c r="C102" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="4">
         <v>210</v>
       </c>
       <c r="E102" s="3" t="s">
@@ -2450,7 +2529,7 @@
       <c r="C103" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="4">
         <v>201.6</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -2464,7 +2543,7 @@
       <c r="C104" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="4">
         <v>3323.2</v>
       </c>
       <c r="E104" s="3" t="s">
@@ -2478,7 +2557,7 @@
       <c r="C105" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="4">
         <v>3747.9</v>
       </c>
       <c r="E105" s="3" t="s">
@@ -2492,7 +2571,7 @@
       <c r="C106" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="4">
         <v>533.20000000000005</v>
       </c>
       <c r="E106" s="3" t="s">
@@ -2506,7 +2585,7 @@
       <c r="C107" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107" s="4">
         <v>1215.2</v>
       </c>
       <c r="E107" s="3" t="s">
@@ -2520,7 +2599,7 @@
       <c r="C108" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D108" s="4">
         <v>2199.25</v>
       </c>
       <c r="E108" s="3" t="s">
@@ -2534,7 +2613,7 @@
       <c r="C109" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D109" s="4">
         <v>2698</v>
       </c>
       <c r="E109" s="3" t="s">
@@ -2548,7 +2627,7 @@
       <c r="C110" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110" s="4">
         <v>1928.5</v>
       </c>
       <c r="E110" s="3" t="s">
@@ -2562,7 +2641,7 @@
       <c r="C111" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="4">
         <v>68.400000000000006</v>
       </c>
       <c r="E111" s="3" t="s">
@@ -2576,7 +2655,7 @@
       <c r="C112" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="4">
         <v>1398.4</v>
       </c>
       <c r="E112" s="3" t="s">
@@ -2590,7 +2669,7 @@
       <c r="C113" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="4">
         <v>4496.5</v>
       </c>
       <c r="E113" s="3" t="s">
@@ -2604,7 +2683,7 @@
       <c r="C114" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114" s="4">
         <v>1196</v>
       </c>
       <c r="E114" s="3" t="s">
@@ -2618,7 +2697,7 @@
       <c r="C115" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="4">
         <v>3979</v>
       </c>
       <c r="E115" s="3" t="s">
@@ -2632,7 +2711,7 @@
       <c r="C116" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D116" s="4">
         <v>2542.77</v>
       </c>
       <c r="E116" s="3" t="s">
@@ -2646,7 +2725,7 @@
       <c r="C117" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="4">
         <v>468.51</v>
       </c>
       <c r="E117" s="3" t="s">
@@ -2660,7 +2739,7 @@
       <c r="C118" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D118" s="6">
+      <c r="D118" s="4">
         <v>1242.52</v>
       </c>
       <c r="E118" s="3" t="s">
@@ -2674,7 +2753,7 @@
       <c r="C119" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D119" s="6">
+      <c r="D119" s="4">
         <v>385</v>
       </c>
       <c r="E119" s="3" t="s">
@@ -2688,7 +2767,7 @@
       <c r="C120" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D120" s="6">
+      <c r="D120" s="4">
         <v>168</v>
       </c>
       <c r="E120" s="3" t="s">
@@ -2702,7 +2781,7 @@
       <c r="C121" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D121" s="4">
         <v>61.44</v>
       </c>
       <c r="E121" s="3" t="s">
@@ -2716,7 +2795,7 @@
       <c r="C122" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D122" s="4">
         <v>60</v>
       </c>
       <c r="E122" s="3" t="s">
@@ -2730,7 +2809,7 @@
       <c r="C123" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D123" s="6">
+      <c r="D123" s="4">
         <v>469.5</v>
       </c>
       <c r="E123" s="3" t="s">
@@ -2744,7 +2823,7 @@
       <c r="C124" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D124" s="6">
+      <c r="D124" s="4">
         <v>1141.92</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -2758,7 +2837,7 @@
       <c r="C125" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D125" s="4">
         <v>3261.6</v>
       </c>
       <c r="E125" s="3" t="s">
@@ -2772,7 +2851,7 @@
       <c r="C126" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D126" s="6">
+      <c r="D126" s="4">
         <v>1774.08</v>
       </c>
       <c r="E126" s="3" t="s">
@@ -2786,7 +2865,7 @@
       <c r="C127" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D127" s="4">
         <v>1705.5</v>
       </c>
       <c r="E127" s="3" t="s">
@@ -2800,7 +2879,7 @@
       <c r="C128" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D128" s="6">
+      <c r="D128" s="4">
         <v>350</v>
       </c>
       <c r="E128" s="3" t="s">
@@ -2814,7 +2893,7 @@
       <c r="C129" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D129" s="4">
         <v>42</v>
       </c>
       <c r="E129" s="3" t="s">
@@ -2828,7 +2907,7 @@
       <c r="C130" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D130" s="6">
+      <c r="D130" s="4">
         <v>518</v>
       </c>
       <c r="E130" s="3" t="s">
@@ -2842,7 +2921,7 @@
       <c r="C131" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D131" s="6">
+      <c r="D131" s="4">
         <v>128</v>
       </c>
       <c r="E131" s="3" t="s">
@@ -2856,7 +2935,7 @@
       <c r="C132" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D132" s="6">
+      <c r="D132" s="4">
         <v>360</v>
       </c>
       <c r="E132" s="3" t="s">
@@ -2870,7 +2949,7 @@
       <c r="C133" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D133" s="6">
+      <c r="D133" s="4">
         <v>400</v>
       </c>
       <c r="E133" s="3" t="s">
@@ -2884,7 +2963,7 @@
       <c r="C134" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D134" s="6">
+      <c r="D134" s="4">
         <v>2150.77</v>
       </c>
       <c r="E134" s="3" t="s">
@@ -2898,7 +2977,7 @@
       <c r="C135" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D135" s="6">
+      <c r="D135" s="4">
         <v>1347.36</v>
       </c>
       <c r="E135" s="3" t="s">
@@ -2912,7 +2991,7 @@
       <c r="C136" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D136" s="6">
+      <c r="D136" s="4">
         <v>3857.41</v>
       </c>
       <c r="E136" s="3" t="s">
@@ -2926,7 +3005,7 @@
       <c r="C137" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D137" s="6">
+      <c r="D137" s="4">
         <v>1975.54</v>
       </c>
       <c r="E137" s="3" t="s">
@@ -2940,7 +3019,7 @@
       <c r="C138" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D138" s="6">
+      <c r="D138" s="4">
         <v>816</v>
       </c>
       <c r="E138" s="3" t="s">
@@ -2954,7 +3033,7 @@
       <c r="C139" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D139" s="6">
+      <c r="D139" s="4">
         <v>1224</v>
       </c>
       <c r="E139" s="3" t="s">
@@ -2968,7 +3047,7 @@
       <c r="C140" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D140" s="6">
+      <c r="D140" s="4">
         <v>918</v>
       </c>
       <c r="E140" s="3" t="s">
@@ -2982,7 +3061,7 @@
       <c r="C141" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D141" s="6">
+      <c r="D141" s="4">
         <v>1411.92</v>
       </c>
       <c r="E141" s="3" t="s">
@@ -2996,7 +3075,7 @@
       <c r="C142" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D142" s="6">
+      <c r="D142" s="4">
         <v>8384.6</v>
       </c>
       <c r="E142" s="3" t="s">
@@ -3010,7 +3089,7 @@
       <c r="C143" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D143" s="6">
+      <c r="D143" s="4">
         <v>11898.5</v>
       </c>
       <c r="E143" s="3" t="s">
@@ -3024,7 +3103,7 @@
       <c r="C144" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D144" s="6">
+      <c r="D144" s="4">
         <v>1855</v>
       </c>
       <c r="E144" s="3" t="s">
@@ -3038,7 +3117,7 @@
       <c r="C145" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D145" s="6">
+      <c r="D145" s="4">
         <v>2220.8000000000002</v>
       </c>
       <c r="E145" s="3" t="s">
@@ -3052,7 +3131,7 @@
       <c r="C146" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D146" s="6">
+      <c r="D146" s="4">
         <v>448</v>
       </c>
       <c r="E146" s="3" t="s">
@@ -3066,7 +3145,7 @@
       <c r="C147" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D147" s="6">
+      <c r="D147" s="4">
         <v>1605.6</v>
       </c>
       <c r="E147" s="3" t="s">
@@ -3080,7 +3159,7 @@
       <c r="C148" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D148" s="6">
+      <c r="D148" s="4">
         <v>620</v>
       </c>
       <c r="E148" s="3" t="s">
@@ -3094,7 +3173,7 @@
       <c r="C149" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D149" s="6">
+      <c r="D149" s="4">
         <v>835</v>
       </c>
       <c r="E149" s="3" t="s">
@@ -3108,7 +3187,7 @@
       <c r="C150" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D150" s="6">
+      <c r="D150" s="4">
         <v>1396.8</v>
       </c>
       <c r="E150" s="3" t="s">
@@ -3122,7 +3201,7 @@
       <c r="C151" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D151" s="6">
+      <c r="D151" s="4">
         <v>1319.2</v>
       </c>
       <c r="E151" s="3" t="s">
@@ -3136,7 +3215,7 @@
       <c r="C152" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D152" s="6">
+      <c r="D152" s="4">
         <v>4219.5</v>
       </c>
       <c r="E152" s="3" t="s">
@@ -3150,7 +3229,7 @@
       <c r="C153" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D153" s="6">
+      <c r="D153" s="4">
         <v>1973.8</v>
       </c>
       <c r="E153" s="3" t="s">
@@ -3164,7 +3243,7 @@
       <c r="C154" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D154" s="6">
+      <c r="D154" s="4">
         <v>3027.6</v>
       </c>
       <c r="E154" s="3" t="s">
@@ -3178,7 +3257,7 @@
       <c r="C155" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D155" s="6">
+      <c r="D155" s="4">
         <v>4488.2</v>
       </c>
       <c r="E155" s="3" t="s">
@@ -3192,7 +3271,7 @@
       <c r="C156" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D156" s="6">
+      <c r="D156" s="4">
         <v>2349</v>
       </c>
       <c r="E156" s="3" t="s">
@@ -3206,7 +3285,7 @@
       <c r="C157" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D157" s="6">
+      <c r="D157" s="4">
         <v>1922.33</v>
       </c>
       <c r="E157" s="3" t="s">
@@ -3220,7 +3299,7 @@
       <c r="C158" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D158" s="6">
+      <c r="D158" s="4">
         <v>815.54</v>
       </c>
       <c r="E158" s="3" t="s">
@@ -3234,7 +3313,7 @@
       <c r="C159" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D159" s="6">
+      <c r="D159" s="4">
         <v>1308.24</v>
       </c>
       <c r="E159" s="3" t="s">
@@ -3248,7 +3327,7 @@
       <c r="C160" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D160" s="6">
+      <c r="D160" s="4">
         <v>1838.19</v>
       </c>
       <c r="E160" s="3" t="s">
@@ -3262,7 +3341,7 @@
       <c r="C161" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D161" s="6">
+      <c r="D161" s="4">
         <v>2960</v>
       </c>
       <c r="E161" s="3" t="s">
@@ -3276,7 +3355,7 @@
       <c r="C162" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D162" s="6">
+      <c r="D162" s="4">
         <v>1300</v>
       </c>
       <c r="E162" s="3" t="s">
@@ -3290,7 +3369,7 @@
       <c r="C163" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D163" s="6">
+      <c r="D163" s="4">
         <v>193.2</v>
       </c>
       <c r="E163" s="3" t="s">
@@ -3304,7 +3383,7 @@
       <c r="C164" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D164" s="6">
+      <c r="D164" s="4">
         <v>865.2</v>
       </c>
       <c r="E164" s="3" t="s">
@@ -3318,7 +3397,7 @@
       <c r="C165" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D165" s="6">
+      <c r="D165" s="4">
         <v>493.5</v>
       </c>
       <c r="E165" s="3" t="s">
@@ -3332,7 +3411,7 @@
       <c r="C166" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D166" s="6">
+      <c r="D166" s="4">
         <v>1112.8</v>
       </c>
       <c r="E166" s="3" t="s">
@@ -3346,7 +3425,7 @@
       <c r="C167" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D167" s="6">
+      <c r="D167" s="4">
         <v>1027.78</v>
       </c>
       <c r="E167" s="3" t="s">
@@ -3360,7 +3439,7 @@
       <c r="C168" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D168" s="6">
+      <c r="D168" s="4">
         <v>2255.5</v>
       </c>
       <c r="E168" s="3" t="s">
@@ -3374,7 +3453,7 @@
       <c r="C169" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D169" s="6">
+      <c r="D169" s="4">
         <v>510.9</v>
       </c>
       <c r="E169" s="3" t="s">
@@ -3388,7 +3467,7 @@
       <c r="C170" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D170" s="6">
+      <c r="D170" s="4">
         <v>384</v>
       </c>
       <c r="E170" s="3" t="s">
@@ -3402,7 +3481,7 @@
       <c r="C171" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D171" s="6">
+      <c r="D171" s="4">
         <v>1252.5</v>
       </c>
       <c r="E171" s="3" t="s">
@@ -3416,7 +3495,7 @@
       <c r="C172" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D172" s="6">
+      <c r="D172" s="4">
         <v>1508.4</v>
       </c>
       <c r="E172" s="3" t="s">
@@ -3430,7 +3509,7 @@
       <c r="C173" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D173" s="6">
+      <c r="D173" s="4">
         <v>2683.5</v>
       </c>
       <c r="E173" s="3" t="s">
@@ -3444,7 +3523,7 @@
       <c r="C174" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D174" s="6">
+      <c r="D174" s="4">
         <v>936</v>
       </c>
       <c r="E174" s="3" t="s">
@@ -3458,7 +3537,7 @@
       <c r="C175" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D175" s="6">
+      <c r="D175" s="4">
         <v>864</v>
       </c>
       <c r="E175" s="3" t="s">
@@ -3472,7 +3551,7 @@
       <c r="C176" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D176" s="6">
+      <c r="D176" s="4">
         <v>1316.4</v>
       </c>
       <c r="E176" s="3" t="s">
@@ -3486,7 +3565,7 @@
       <c r="C177" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D177" s="6">
+      <c r="D177" s="4">
         <v>5710.08</v>
       </c>
       <c r="E177" s="3" t="s">
@@ -3500,7 +3579,7 @@
       <c r="C178" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D178" s="6">
+      <c r="D178" s="4">
         <v>999.01</v>
       </c>
       <c r="E178" s="3" t="s">
@@ -3514,7 +3593,7 @@
       <c r="C179" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D179" s="6">
+      <c r="D179" s="4">
         <v>1849.7</v>
       </c>
       <c r="E179" s="3" t="s">
@@ -3528,7 +3607,7 @@
       <c r="C180" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D180" s="6">
+      <c r="D180" s="4">
         <v>2646.08</v>
       </c>
       <c r="E180" s="3" t="s">
@@ -3542,7 +3621,7 @@
       <c r="C181" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D181" s="6">
+      <c r="D181" s="4">
         <v>1685.36</v>
       </c>
       <c r="E181" s="3" t="s">
@@ -3556,7 +3635,7 @@
       <c r="C182" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D182" s="6">
+      <c r="D182" s="4">
         <v>5154.8500000000004</v>
       </c>
       <c r="E182" s="3" t="s">
@@ -3570,7 +3649,7 @@
       <c r="C183" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D183" s="6">
+      <c r="D183" s="4">
         <v>2099.1999999999998</v>
       </c>
       <c r="E183" s="3" t="s">
@@ -3584,7 +3663,7 @@
       <c r="C184" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D184" s="6">
+      <c r="D184" s="4">
         <v>1500.6</v>
       </c>
       <c r="E184" s="3" t="s">
@@ -3598,7 +3677,7 @@
       <c r="C185" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D185" s="6">
+      <c r="D185" s="4">
         <v>4029.48</v>
       </c>
       <c r="E185" s="3" t="s">
@@ -3612,7 +3691,7 @@
       <c r="C186" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D186" s="6">
+      <c r="D186" s="4">
         <v>1357.44</v>
       </c>
       <c r="E186" s="3" t="s">
@@ -3626,7 +3705,7 @@
       <c r="C187" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D187" s="6">
+      <c r="D187" s="4">
         <v>3029.25</v>
       </c>
       <c r="E187" s="3" t="s">
@@ -3640,7 +3719,7 @@
       <c r="C188" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D188" s="6">
+      <c r="D188" s="4">
         <v>504</v>
       </c>
       <c r="E188" s="3" t="s">
@@ -3654,7 +3733,7 @@
       <c r="C189" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D189" s="6">
+      <c r="D189" s="4">
         <v>656.25</v>
       </c>
       <c r="E189" s="3" t="s">
@@ -3668,7 +3747,7 @@
       <c r="C190" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D190" s="6">
+      <c r="D190" s="4">
         <v>1162.8</v>
       </c>
       <c r="E190" s="3" t="s">
@@ -3682,7 +3761,7 @@
       <c r="C191" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D191" s="6">
+      <c r="D191" s="4">
         <v>456</v>
       </c>
       <c r="E191" s="3" t="s">
@@ -3696,7 +3775,7 @@
       <c r="C192" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D192" s="6">
+      <c r="D192" s="4">
         <v>1396.5</v>
       </c>
       <c r="E192" s="3" t="s">
@@ -3710,7 +3789,7 @@
       <c r="C193" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D193" s="6">
+      <c r="D193" s="4">
         <v>5320</v>
       </c>
       <c r="E193" s="3" t="s">
@@ -3724,7 +3803,7 @@
       <c r="C194" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D194" s="6">
+      <c r="D194" s="4">
         <v>9116.7999999999993</v>
       </c>
       <c r="E194" s="3" t="s">
@@ -3738,7 +3817,7 @@
       <c r="C195" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D195" s="6">
+      <c r="D195" s="4">
         <v>5087.5</v>
       </c>
       <c r="E195" s="3" t="s">
@@ -3752,7 +3831,7 @@
       <c r="C196" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D196" s="6">
+      <c r="D196" s="4">
         <v>7452.5</v>
       </c>
       <c r="E196" s="3" t="s">
@@ -3766,7 +3845,7 @@
       <c r="C197" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D197" s="6">
+      <c r="D197" s="4">
         <v>11959.75</v>
       </c>
       <c r="E197" s="3" t="s">
@@ -3780,7 +3859,7 @@
       <c r="C198" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D198" s="6">
+      <c r="D198" s="4">
         <v>87.75</v>
       </c>
       <c r="E198" s="3" t="s">
@@ -3794,7 +3873,7 @@
       <c r="C199" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D199" s="6">
+      <c r="D199" s="4">
         <v>499.2</v>
       </c>
       <c r="E199" s="3" t="s">
@@ -3808,7 +3887,7 @@
       <c r="C200" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D200" s="6">
+      <c r="D200" s="4">
         <v>585</v>
       </c>
       <c r="E200" s="3" t="s">
@@ -3822,7 +3901,7 @@
       <c r="C201" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D201" s="6">
+      <c r="D201" s="4">
         <v>984.75</v>
       </c>
       <c r="E201" s="3" t="s">
@@ -3836,7 +3915,7 @@
       <c r="C202" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D202" s="6">
+      <c r="D202" s="4">
         <v>1233.8</v>
       </c>
       <c r="E202" s="3" t="s">
@@ -3850,7 +3929,7 @@
       <c r="C203" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D203" s="6">
+      <c r="D203" s="4">
         <v>1233.8</v>
       </c>
       <c r="E203" s="3" t="s">
@@ -3864,7 +3943,7 @@
       <c r="C204" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D204" s="6">
+      <c r="D204" s="4">
         <v>214.52</v>
       </c>
       <c r="E204" s="3" t="s">
@@ -3878,7 +3957,7 @@
       <c r="C205" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D205" s="6">
+      <c r="D205" s="4">
         <v>1508.92</v>
       </c>
       <c r="E205" s="3" t="s">
@@ -3892,7 +3971,7 @@
       <c r="C206" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D206" s="6">
+      <c r="D206" s="4">
         <v>1646.25</v>
       </c>
       <c r="E206" s="3" t="s">
@@ -3906,7 +3985,7 @@
       <c r="C207" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D207" s="6">
+      <c r="D207" s="4">
         <v>714</v>
       </c>
       <c r="E207" s="3" t="s">
@@ -3920,7 +3999,7 @@
       <c r="C208" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D208" s="6">
+      <c r="D208" s="4">
         <v>216</v>
       </c>
       <c r="E208" s="3" t="s">
@@ -3934,7 +4013,7 @@
       <c r="C209" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D209" s="6">
+      <c r="D209" s="4">
         <v>941.25</v>
       </c>
       <c r="E209" s="3" t="s">
@@ -3948,7 +4027,7 @@
       <c r="C210" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D210" s="6">
+      <c r="D210" s="4">
         <v>1953.67</v>
       </c>
       <c r="E210" s="3" t="s">
@@ -3962,7 +4041,7 @@
       <c r="C211" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D211" s="6">
+      <c r="D211" s="4">
         <v>190</v>
       </c>
       <c r="E211" s="3" t="s">
@@ -3976,7 +4055,7 @@
       <c r="C212" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D212" s="6">
+      <c r="D212" s="4">
         <v>1007</v>
       </c>
       <c r="E212" s="3" t="s">
@@ -3990,7 +4069,7 @@
       <c r="C213" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D213" s="6">
+      <c r="D213" s="4">
         <v>205.2</v>
       </c>
       <c r="E213" s="3" t="s">
@@ -4004,7 +4083,7 @@
       <c r="C214" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D214" s="6">
+      <c r="D214" s="4">
         <v>1881</v>
       </c>
       <c r="E214" s="3" t="s">
@@ -4018,7 +4097,7 @@
       <c r="C215" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D215" s="6">
+      <c r="D215" s="4">
         <v>4105.92</v>
       </c>
       <c r="E215" s="3" t="s">
@@ -4032,7 +4111,7 @@
       <c r="C216" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D216" s="6">
+      <c r="D216" s="4">
         <v>3556.8</v>
       </c>
       <c r="E216" s="3" t="s">
@@ -4046,7 +4125,7 @@
       <c r="C217" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D217" s="6">
+      <c r="D217" s="4">
         <v>3310.56</v>
       </c>
       <c r="E217" s="3" t="s">
@@ -4060,7 +4139,7 @@
       <c r="C218" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D218" s="6">
+      <c r="D218" s="4">
         <v>1037.4000000000001</v>
       </c>
       <c r="E218" s="3" t="s">
@@ -4074,7 +4153,7 @@
       <c r="C219" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D219" s="6">
+      <c r="D219" s="4">
         <v>179.2</v>
       </c>
       <c r="E219" s="3" t="s">
@@ -4088,7 +4167,7 @@
       <c r="C220" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D220" s="6">
+      <c r="D220" s="4">
         <v>750.4</v>
       </c>
       <c r="E220" s="3" t="s">
@@ -4102,7 +4181,7 @@
       <c r="C221" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D221" s="6">
+      <c r="D221" s="4">
         <v>2195</v>
       </c>
       <c r="E221" s="3" t="s">
@@ -4116,7 +4195,7 @@
       <c r="C222" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D222" s="6">
+      <c r="D222" s="4">
         <v>1756</v>
       </c>
       <c r="E222" s="3" t="s">
@@ -4130,7 +4209,7 @@
       <c r="C223" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D223" s="6">
+      <c r="D223" s="4">
         <v>5268</v>
       </c>
       <c r="E223" s="3" t="s">
@@ -4144,7 +4223,7 @@
       <c r="C224" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D224" s="6">
+      <c r="D224" s="4">
         <v>1755</v>
       </c>
       <c r="E224" s="3" t="s">
@@ -4158,7 +4237,7 @@
       <c r="C225" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D225" s="6">
+      <c r="D225" s="4">
         <v>1062.5</v>
       </c>
       <c r="E225" s="3" t="s">
@@ -4172,7 +4251,7 @@
       <c r="C226" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D226" s="6">
+      <c r="D226" s="4">
         <v>492.5</v>
       </c>
       <c r="E226" s="3" t="s">
@@ -4186,7 +4265,7 @@
       <c r="C227" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D227" s="6">
+      <c r="D227" s="4">
         <v>1935</v>
       </c>
       <c r="E227" s="3" t="s">
@@ -4200,7 +4279,7 @@
       <c r="C228" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D228" s="6">
+      <c r="D228" s="4">
         <v>1267.5</v>
       </c>
       <c r="E228" s="3" t="s">
@@ -4214,7 +4293,7 @@
       <c r="C229" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D229" s="6">
+      <c r="D229" s="4">
         <v>978.6</v>
       </c>
       <c r="E229" s="3" t="s">
@@ -4228,7 +4307,7 @@
       <c r="C230" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D230" s="6">
+      <c r="D230" s="4">
         <v>2307.1999999999998</v>
       </c>
       <c r="E230" s="3" t="s">
@@ -4242,7 +4321,7 @@
       <c r="C231" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D231" s="6">
+      <c r="D231" s="4">
         <v>912.8</v>
       </c>
       <c r="E231" s="3" t="s">
@@ -4256,7 +4335,7 @@
       <c r="C232" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D232" s="6">
+      <c r="D232" s="4">
         <v>985.6</v>
       </c>
       <c r="E232" s="3" t="s">
@@ -4270,7 +4349,7 @@
       <c r="C233" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D233" s="6">
+      <c r="D233" s="4">
         <v>4252.5</v>
       </c>
       <c r="E233" s="3" t="s">
@@ -4284,7 +4363,7 @@
       <c r="C234" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D234" s="6">
+      <c r="D234" s="4">
         <v>1701</v>
       </c>
       <c r="E234" s="3" t="s">
@@ -4298,7 +4377,7 @@
       <c r="C235" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D235" s="6">
+      <c r="D235" s="4">
         <v>1360.8</v>
       </c>
       <c r="E235" s="3" t="s">
@@ -4312,7 +4391,7 @@
       <c r="C236" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D236" s="6">
+      <c r="D236" s="4">
         <v>1434</v>
       </c>
       <c r="E236" s="3" t="s">
@@ -4326,7 +4405,7 @@
       <c r="C237" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D237" s="6">
+      <c r="D237" s="4">
         <v>1733</v>
       </c>
       <c r="E237" s="3" t="s">
@@ -4340,7 +4419,7 @@
       <c r="C238" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D238" s="6">
+      <c r="D238" s="4">
         <v>1418</v>
       </c>
       <c r="E238" s="3" t="s">
@@ -4354,7 +4433,7 @@
       <c r="C239" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D239" s="6">
+      <c r="D239" s="4">
         <v>756</v>
       </c>
       <c r="E239" s="3" t="s">
@@ -4368,7 +4447,7 @@
       <c r="C240" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D240" s="6">
+      <c r="D240" s="4">
         <v>2679</v>
       </c>
       <c r="E240" s="3" t="s">
@@ -4382,7 +4461,7 @@
       <c r="C241" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D241" s="6">
+      <c r="D241" s="4">
         <v>1510.5</v>
       </c>
       <c r="E241" s="3" t="s">
@@ -4396,7 +4475,7 @@
       <c r="C242" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D242" s="6">
+      <c r="D242" s="4">
         <v>1881</v>
       </c>
       <c r="E242" s="3" t="s">
@@ -4410,7 +4489,7 @@
       <c r="C243" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D243" s="6">
+      <c r="D243" s="4">
         <v>3021</v>
       </c>
       <c r="E243" s="3" t="s">
@@ -4424,7 +4503,7 @@
       <c r="C244" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D244" s="6">
+      <c r="D244" s="4">
         <v>91.8</v>
       </c>
       <c r="E244" s="3" t="s">
@@ -4438,7 +4517,7 @@
       <c r="C245" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D245" s="6">
+      <c r="D245" s="4">
         <v>1504.8</v>
       </c>
       <c r="E245" s="3" t="s">
@@ -4452,7 +4531,7 @@
       <c r="C246" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D246" s="6">
+      <c r="D246" s="4">
         <v>823.2</v>
       </c>
       <c r="E246" s="3" t="s">
@@ -4466,7 +4545,7 @@
       <c r="C247" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D247" s="6">
+      <c r="D247" s="4">
         <v>803.52</v>
       </c>
       <c r="E247" s="3" t="s">
@@ -4480,7 +4559,7 @@
       <c r="C248" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D248" s="6">
+      <c r="D248" s="4">
         <v>1742.4</v>
       </c>
       <c r="E248" s="3" t="s">
@@ -4494,7 +4573,7 @@
       <c r="C249" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D249" s="6">
+      <c r="D249" s="4">
         <v>1273.5</v>
       </c>
       <c r="E249" s="3" t="s">
@@ -4508,7 +4587,7 @@
       <c r="C250" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D250" s="6">
+      <c r="D250" s="4">
         <v>1683</v>
       </c>
       <c r="E250" s="3" t="s">
@@ -4522,7 +4601,7 @@
       <c r="C251" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D251" s="6">
+      <c r="D251" s="4">
         <v>1008</v>
       </c>
       <c r="E251" s="3" t="s">
@@ -4536,7 +4615,7 @@
       <c r="C252" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D252" s="6">
+      <c r="D252" s="4">
         <v>5472.3</v>
       </c>
       <c r="E252" s="3" t="s">
@@ -4550,7 +4629,7 @@
       <c r="C253" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D253" s="6">
+      <c r="D253" s="4">
         <v>4547.92</v>
       </c>
       <c r="E253" s="3" t="s">
@@ -4564,7 +4643,7 @@
       <c r="C254" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D254" s="6">
+      <c r="D254" s="4">
         <v>4728</v>
       </c>
       <c r="E254" s="3" t="s">
@@ -4578,7 +4657,7 @@
       <c r="C255" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D255" s="6">
+      <c r="D255" s="4">
         <v>6014.6</v>
       </c>
       <c r="E255" s="3" t="s">
@@ -4592,7 +4671,7 @@
       <c r="C256" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D256" s="6">
+      <c r="D256" s="4">
         <v>349.6</v>
       </c>
       <c r="E256" s="3" t="s">
@@ -4606,7 +4685,7 @@
       <c r="C257" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D257" s="6">
+      <c r="D257" s="4">
         <v>204.7</v>
       </c>
       <c r="E257" s="3" t="s">
@@ -4620,7 +4699,7 @@
       <c r="C258" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D258" s="6">
+      <c r="D258" s="4">
         <v>943.89</v>
       </c>
       <c r="E258" s="3" t="s">
@@ -4634,7 +4713,7 @@
       <c r="C259" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D259" s="6">
+      <c r="D259" s="4">
         <v>841.8</v>
       </c>
       <c r="E259" s="3" t="s">
@@ -4648,7 +4727,7 @@
       <c r="C260" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D260" s="6">
+      <c r="D260" s="4">
         <v>5702.4</v>
       </c>
       <c r="E260" s="3" t="s">
@@ -4662,7 +4741,7 @@
       <c r="C261" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D261" s="6">
+      <c r="D261" s="4">
         <v>8912.8799999999992</v>
       </c>
       <c r="E261" s="3" t="s">
@@ -4676,7 +4755,7 @@
       <c r="C262" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D262" s="6">
+      <c r="D262" s="4">
         <v>14037.79</v>
       </c>
       <c r="E262" s="3" t="s">
@@ -4690,7 +4769,7 @@
       <c r="C263" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D263" s="6">
+      <c r="D263" s="4">
         <v>4456.4399999999996</v>
       </c>
       <c r="E263" s="3" t="s">
@@ -4704,7 +4783,7 @@
       <c r="C264" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D264" s="6">
+      <c r="D264" s="4">
         <v>470.81</v>
       </c>
       <c r="E264" s="3" t="s">
@@ -4718,7 +4797,7 @@
       <c r="C265" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D265" s="6">
+      <c r="D265" s="4">
         <v>1866.97</v>
       </c>
       <c r="E265" s="3" t="s">
@@ -4732,7 +4811,7 @@
       <c r="C266" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D266" s="6">
+      <c r="D266" s="4">
         <v>2185.5</v>
       </c>
       <c r="E266" s="3" t="s">
@@ -4746,7 +4825,7 @@
       <c r="C267" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D267" s="6">
+      <c r="D267" s="4">
         <v>2018.1</v>
       </c>
       <c r="E267" s="3" t="s">
@@ -4760,7 +4839,7 @@
       <c r="C268" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D268" s="6">
+      <c r="D268" s="4">
         <v>490.21</v>
       </c>
       <c r="E268" s="3" t="s">
@@ -4774,7 +4853,7 @@
       <c r="C269" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D269" s="6">
+      <c r="D269" s="4">
         <v>966.42</v>
       </c>
       <c r="E269" s="3" t="s">
@@ -4788,7 +4867,7 @@
       <c r="C270" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D270" s="6">
+      <c r="D270" s="4">
         <v>978.93</v>
       </c>
       <c r="E270" s="3" t="s">
@@ -4802,7 +4881,7 @@
       <c r="C271" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D271" s="6">
+      <c r="D271" s="4">
         <v>666.03</v>
       </c>
       <c r="E271" s="3" t="s">
@@ -4816,7 +4895,7 @@
       <c r="C272" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D272" s="6">
+      <c r="D272" s="4">
         <v>778.5</v>
       </c>
       <c r="E272" s="3" t="s">
@@ -4830,7 +4909,7 @@
       <c r="C273" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D273" s="6">
+      <c r="D273" s="4">
         <v>423</v>
       </c>
       <c r="E273" s="3" t="s">
@@ -4844,7 +4923,7 @@
       <c r="C274" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D274" s="6">
+      <c r="D274" s="4">
         <v>979.2</v>
       </c>
       <c r="E274" s="3" t="s">
@@ -4858,7 +4937,7 @@
       <c r="C275" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D275" s="6">
+      <c r="D275" s="4">
         <v>396</v>
       </c>
       <c r="E275" s="3" t="s">
@@ -4872,7 +4951,7 @@
       <c r="C276" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D276" s="6">
+      <c r="D276" s="4">
         <v>1084.8</v>
       </c>
       <c r="E276" s="3" t="s">
@@ -4886,7 +4965,7 @@
       <c r="C277" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D277" s="6">
+      <c r="D277" s="4">
         <v>3826.5</v>
       </c>
       <c r="E277" s="3" t="s">
@@ -4900,7 +4979,7 @@
       <c r="C278" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D278" s="6">
+      <c r="D278" s="4">
         <v>2700</v>
       </c>
       <c r="E278" s="3" t="s">
@@ -4914,7 +4993,7 @@
       <c r="C279" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D279" s="6">
+      <c r="D279" s="4">
         <v>1575</v>
       </c>
       <c r="E279" s="3" t="s">
@@ -4928,7 +5007,7 @@
       <c r="C280" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D280" s="6">
+      <c r="D280" s="4">
         <v>845</v>
       </c>
       <c r="E280" s="3" t="s">
@@ -4942,7 +5021,7 @@
       <c r="C281" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D281" s="6">
+      <c r="D281" s="4">
         <v>942.5</v>
       </c>
       <c r="E281" s="3" t="s">
@@ -4956,7 +5035,7 @@
       <c r="C282" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D282" s="6">
+      <c r="D282" s="4">
         <v>385.94</v>
       </c>
       <c r="E282" s="3" t="s">
@@ -4970,7 +5049,7 @@
       <c r="C283" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D283" s="6">
+      <c r="D283" s="4">
         <v>2590.1</v>
       </c>
       <c r="E283" s="3" t="s">
@@ -4984,7 +5063,7 @@
       <c r="C284" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D284" s="6">
+      <c r="D284" s="4">
         <v>842.88</v>
       </c>
       <c r="E284" s="3" t="s">
@@ -4998,7 +5077,7 @@
       <c r="C285" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D285" s="6">
+      <c r="D285" s="4">
         <v>263.39999999999998</v>
       </c>
       <c r="E285" s="3" t="s">
@@ -5012,7 +5091,7 @@
       <c r="C286" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D286" s="6">
+      <c r="D286" s="4">
         <v>3202.87</v>
       </c>
       <c r="E286" s="3" t="s">
@@ -5026,7 +5105,7 @@
       <c r="C287" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D287" s="6">
+      <c r="D287" s="4">
         <v>2912.7</v>
       </c>
       <c r="E287" s="3" t="s">
@@ -5040,7 +5119,7 @@
       <c r="C288" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D288" s="6">
+      <c r="D288" s="4">
         <v>1735.65</v>
       </c>
       <c r="E288" s="3" t="s">
@@ -5054,7 +5133,7 @@
       <c r="C289" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D289" s="6">
+      <c r="D289" s="4">
         <v>1679.12</v>
       </c>
       <c r="E289" s="3" t="s">
@@ -5068,7 +5147,7 @@
       <c r="C290" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D290" s="6">
+      <c r="D290" s="4">
         <v>798</v>
       </c>
       <c r="E290" s="3" t="s">
@@ -5082,7 +5161,7 @@
       <c r="C291" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D291" s="6">
+      <c r="D291" s="4">
         <v>1159</v>
       </c>
       <c r="E291" s="3" t="s">
@@ -5096,7 +5175,7 @@
       <c r="C292" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D292" s="6">
+      <c r="D292" s="4">
         <v>668.8</v>
       </c>
       <c r="E292" s="3" t="s">
@@ -5110,7 +5189,7 @@
       <c r="C293" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D293" s="6">
+      <c r="D293" s="4">
         <v>817</v>
       </c>
       <c r="E293" s="3" t="s">
@@ -5124,7 +5203,7 @@
       <c r="C294" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D294" s="6">
+      <c r="D294" s="4">
         <v>285.95</v>
       </c>
       <c r="E294" s="3" t="s">
@@ -5133,7 +5212,7 @@
     </row>
     <row r="295" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B8:E294"/>
+  <autoFilter ref="B8:E8"/>
   <mergeCells count="2">
     <mergeCell ref="B1:I2"/>
     <mergeCell ref="B5:I6"/>

--- a/Turma Maio 2017/Aula 3/Aula Varios Ses.xlsx
+++ b/Turma Maio 2017/Aula 3/Aula Varios Ses.xlsx
@@ -437,20 +437,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1019,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I295"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,57 +1038,57 @@
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="2:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1092,10 +1101,10 @@
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>105</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1115,7 +1124,7 @@
       <c r="D9" s="4">
         <v>2667.6</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1125,7 +1134,7 @@
         <f>COUNTIF(E9:E294,"Trim 1")</f>
         <v>99</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <f>SUMIF(E9:E294,"Trim 1",D9:D294)</f>
         <v>228031.92000000004</v>
       </c>
@@ -1140,7 +1149,7 @@
       <c r="D10" s="4">
         <v>4013.1</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1150,7 +1159,7 @@
         <f>COUNTIF(E9:E294,"Trim 2")</f>
         <v>69</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <f>SUMIF(E9:E294,"Trim 2",D9:D294)</f>
         <v>144799.01</v>
       </c>
@@ -1165,7 +1174,7 @@
       <c r="D11" s="4">
         <v>3900</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1175,7 +1184,7 @@
         <f>COUNTIF(E9:E294,"Trim 3")</f>
         <v>39</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <f>SUMIF(E9:E294,"Trim 3",D9:D294)</f>
         <v>103724.22000000002</v>
       </c>
@@ -1190,7 +1199,7 @@
       <c r="D12" s="4">
         <v>6000.15</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1200,7 +1209,7 @@
         <f>COUNTIF(E9:E294,"Trim 4")</f>
         <v>79</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <f>SUMIF(E9:E294,"Trim 4",D9:D294)</f>
         <v>132291.60999999999</v>
       </c>
@@ -1215,7 +1224,7 @@
       <c r="D13" s="4">
         <v>544</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1229,7 +1238,7 @@
       <c r="D14" s="4">
         <v>600</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1254,7 +1263,7 @@
       <c r="D15" s="4">
         <v>140</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1268,7 +1277,7 @@
       <c r="D16" s="4">
         <v>440</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1278,7 +1287,7 @@
         <f>COUNTIF($B$9:$B$294,"Bebidas")</f>
         <v>46</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <f>SUMIF(B9:B294,"bebidas",D9:D294)</f>
         <v>102074.29</v>
       </c>
@@ -1293,7 +1302,7 @@
       <c r="D17" s="4">
         <v>1474.41</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1303,7 +1312,7 @@
         <f>COUNTIF($B$9:$B$294,"Laticínios")</f>
         <v>38</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <f>SUMIF(B9:B294,"Laticínios",D9:D294)</f>
         <v>114749.75</v>
       </c>
@@ -1318,7 +1327,7 @@
       <c r="D18" s="4">
         <v>2162</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1332,7 +1341,7 @@
       <c r="D19" s="4">
         <v>2272</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1342,7 +1351,10 @@
         <f>COUNTIFS(B9:B294,"Condimentos",E9:E294,"Trim 1")</f>
         <v>18</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="5">
+        <f>SUMIFS($D$9:$D$294,$B$9:$B$294,"condimentos",$E$9:$E$294,"Trim 1")</f>
+        <v>28640.780000000002</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
@@ -1354,7 +1366,7 @@
       <c r="D20" s="4">
         <v>3887.92</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1364,7 +1376,10 @@
         <f>COUNTIFS(B9:B294,"Frutos do MAr",E9:E294,"Trim 2")</f>
         <v>13</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="5">
+        <f>SUMIFS($D$9:$D$294,$B$9:$B$294,"Frutos do mar",$E$9:$E$294,"Trim 2")</f>
+        <v>18987.810000000001</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
@@ -1376,7 +1391,7 @@
       <c r="D21" s="4">
         <v>3060</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1386,7 +1401,10 @@
         <f>COUNTIFS(B9:B294,"bebidas",C9:C294,"guaraná fantástica",E9:E294,"Trim 1")</f>
         <v>6</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="5">
+        <f>SUMIFS($D$9:$D$294,$B$9:$B$294,"Bebidas",$E$9:$E$294,"Trim 1",$C$9:$C$294,"Guaraná fantástica")</f>
+        <v>5567.6100000000006</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
@@ -1398,7 +1416,7 @@
       <c r="D22" s="4">
         <v>3329.28</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1412,7 +1430,7 @@
       <c r="D23" s="4">
         <v>3989.9</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1426,7 +1444,7 @@
       <c r="D24" s="4">
         <v>10273.1</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1440,7 +1458,7 @@
       <c r="D25" s="4">
         <v>4987.5</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1454,7 +1472,7 @@
       <c r="D26" s="4">
         <v>1500</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1468,7 +1486,7 @@
       <c r="D27" s="4">
         <v>2362.5</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1482,7 +1500,7 @@
       <c r="D28" s="4">
         <v>7100</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1496,7 +1514,7 @@
       <c r="D29" s="4">
         <v>705.6</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1510,7 +1528,7 @@
       <c r="D30" s="4">
         <v>2128.5</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1524,7 +1542,7 @@
       <c r="D31" s="4">
         <v>1174.5</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1538,7 +1556,7 @@
       <c r="D32" s="4">
         <v>878.4</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1552,7 +1570,7 @@
       <c r="D33" s="4">
         <v>2028.25</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1566,7 +1584,7 @@
       <c r="D34" s="4">
         <v>2061.5</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1580,7 +1598,7 @@
       <c r="D35" s="4">
         <v>228</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1594,7 +1612,7 @@
       <c r="D36" s="4">
         <v>2720.8</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1608,7 +1626,7 @@
       <c r="D37" s="4">
         <v>2424.6</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1622,7 +1640,7 @@
       <c r="D38" s="4">
         <v>1100.7</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1636,7 +1654,7 @@
       <c r="D39" s="4">
         <v>360</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1650,7 +1668,7 @@
       <c r="D40" s="4">
         <v>590.4</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1664,7 +1682,7 @@
       <c r="D41" s="4">
         <v>225.28</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1678,7 +1696,7 @@
       <c r="D42" s="4">
         <v>2970</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1692,7 +1710,7 @@
       <c r="D43" s="4">
         <v>1337.6</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1706,7 +1724,7 @@
       <c r="D44" s="4">
         <v>682</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1720,7 +1738,7 @@
       <c r="D45" s="4">
         <v>288.22000000000003</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1734,7 +1752,7 @@
       <c r="D46" s="4">
         <v>85.4</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1748,7 +1766,7 @@
       <c r="D47" s="4">
         <v>744.6</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1762,7 +1780,7 @@
       <c r="D48" s="4">
         <v>306</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1776,7 +1794,7 @@
       <c r="D49" s="4">
         <v>68.849999999999994</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1790,7 +1808,7 @@
       <c r="D50" s="4">
         <v>162.56</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1804,7 +1822,7 @@
       <c r="D51" s="4">
         <v>1317.5</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1818,7 +1836,7 @@
       <c r="D52" s="4">
         <v>7312.12</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1832,7 +1850,7 @@
       <c r="D53" s="4">
         <v>12806.1</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1846,7 +1864,7 @@
       <c r="D54" s="4">
         <v>25127.360000000001</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1860,7 +1878,7 @@
       <c r="D55" s="4">
         <v>417.38</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1874,7 +1892,7 @@
       <c r="D56" s="4">
         <v>265</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1888,7 +1906,7 @@
       <c r="D57" s="4">
         <v>1393.9</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1902,7 +1920,7 @@
       <c r="D58" s="4">
         <v>911.75</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1916,7 +1934,7 @@
       <c r="D59" s="4">
         <v>742</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1930,7 +1948,7 @@
       <c r="D60" s="4">
         <v>187.6</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1944,7 +1962,7 @@
       <c r="D61" s="4">
         <v>226.8</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1958,7 +1976,7 @@
       <c r="D62" s="4">
         <v>2472.5</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1972,7 +1990,7 @@
       <c r="D63" s="4">
         <v>4454.8</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1986,7 +2004,7 @@
       <c r="D64" s="4">
         <v>2541.29</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2000,7 +2018,7 @@
       <c r="D65" s="4">
         <v>174.15</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2014,7 +2032,7 @@
       <c r="D66" s="4">
         <v>294</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2028,7 +2046,7 @@
       <c r="D67" s="4">
         <v>242.5</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2042,7 +2060,7 @@
       <c r="D68" s="4">
         <v>150</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2056,7 +2074,7 @@
       <c r="D69" s="4">
         <v>99.5</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2070,7 +2088,7 @@
       <c r="D70" s="4">
         <v>176.7</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2084,7 +2102,7 @@
       <c r="D71" s="4">
         <v>1298.1199999999999</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2098,7 +2116,7 @@
       <c r="D72" s="4">
         <v>9032.6</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2112,7 +2130,7 @@
       <c r="D73" s="4">
         <v>9868.6</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2126,7 +2144,7 @@
       <c r="D74" s="4">
         <v>6771.6</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2140,7 +2158,7 @@
       <c r="D75" s="4">
         <v>6931.2</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2154,7 +2172,7 @@
       <c r="D76" s="4">
         <v>2681.87</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2168,7 +2186,7 @@
       <c r="D77" s="4">
         <v>2993.12</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2182,7 +2200,7 @@
       <c r="D78" s="4">
         <v>487</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2196,7 +2214,7 @@
       <c r="D79" s="4">
         <v>1458.75</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2210,7 +2228,7 @@
       <c r="D80" s="4">
         <v>1750</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2224,7 +2242,7 @@
       <c r="D81" s="4">
         <v>750</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2238,7 +2256,7 @@
       <c r="D82" s="4">
         <v>421.2</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2252,7 +2270,7 @@
       <c r="D83" s="4">
         <v>208</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2266,7 +2284,7 @@
       <c r="D84" s="4">
         <v>467.55</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2280,7 +2298,7 @@
       <c r="D85" s="4">
         <v>337.5</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2294,7 +2312,7 @@
       <c r="D86" s="4">
         <v>219.37</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2308,7 +2326,7 @@
       <c r="D87" s="4">
         <v>529.20000000000005</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2322,7 +2340,7 @@
       <c r="D88" s="4">
         <v>2649.6</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2336,7 +2354,7 @@
       <c r="D89" s="4">
         <v>5652</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2350,7 +2368,7 @@
       <c r="D90" s="4">
         <v>4473</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2364,7 +2382,7 @@
       <c r="D91" s="4">
         <v>1267.2</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2378,7 +2396,7 @@
       <c r="D92" s="4">
         <v>1701.87</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2392,7 +2410,7 @@
       <c r="D93" s="4">
         <v>1093.0899999999999</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2406,7 +2424,7 @@
       <c r="D94" s="4">
         <v>1753.62</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2420,7 +2438,7 @@
       <c r="D95" s="4">
         <v>1994.85</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2434,7 +2452,7 @@
       <c r="D96" s="4">
         <v>2835.68</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2448,7 +2466,7 @@
       <c r="D97" s="4">
         <v>5079.6000000000004</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2462,7 +2480,7 @@
       <c r="D98" s="4">
         <v>1249.2</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2476,7 +2494,7 @@
       <c r="D99" s="4">
         <v>2061.17</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2490,7 +2508,7 @@
       <c r="D100" s="4">
         <v>504</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2504,7 +2522,7 @@
       <c r="D101" s="4">
         <v>3318</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2518,7 +2536,7 @@
       <c r="D102" s="4">
         <v>210</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2532,7 +2550,7 @@
       <c r="D103" s="4">
         <v>201.6</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2546,7 +2564,7 @@
       <c r="D104" s="4">
         <v>3323.2</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2560,7 +2578,7 @@
       <c r="D105" s="4">
         <v>3747.9</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2574,7 +2592,7 @@
       <c r="D106" s="4">
         <v>533.20000000000005</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2588,7 +2606,7 @@
       <c r="D107" s="4">
         <v>1215.2</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2602,7 +2620,7 @@
       <c r="D108" s="4">
         <v>2199.25</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2616,7 +2634,7 @@
       <c r="D109" s="4">
         <v>2698</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2630,7 +2648,7 @@
       <c r="D110" s="4">
         <v>1928.5</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2644,7 +2662,7 @@
       <c r="D111" s="4">
         <v>68.400000000000006</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2658,7 +2676,7 @@
       <c r="D112" s="4">
         <v>1398.4</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2672,7 +2690,7 @@
       <c r="D113" s="4">
         <v>4496.5</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2686,7 +2704,7 @@
       <c r="D114" s="4">
         <v>1196</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2700,7 +2718,7 @@
       <c r="D115" s="4">
         <v>3979</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2714,7 +2732,7 @@
       <c r="D116" s="4">
         <v>2542.77</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2728,7 +2746,7 @@
       <c r="D117" s="4">
         <v>468.51</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2742,7 +2760,7 @@
       <c r="D118" s="4">
         <v>1242.52</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2756,7 +2774,7 @@
       <c r="D119" s="4">
         <v>385</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2770,7 +2788,7 @@
       <c r="D120" s="4">
         <v>168</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2784,7 +2802,7 @@
       <c r="D121" s="4">
         <v>61.44</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2798,7 +2816,7 @@
       <c r="D122" s="4">
         <v>60</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2812,7 +2830,7 @@
       <c r="D123" s="4">
         <v>469.5</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2826,7 +2844,7 @@
       <c r="D124" s="4">
         <v>1141.92</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2840,7 +2858,7 @@
       <c r="D125" s="4">
         <v>3261.6</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2854,7 +2872,7 @@
       <c r="D126" s="4">
         <v>1774.08</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2868,7 +2886,7 @@
       <c r="D127" s="4">
         <v>1705.5</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2882,7 +2900,7 @@
       <c r="D128" s="4">
         <v>350</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2896,7 +2914,7 @@
       <c r="D129" s="4">
         <v>42</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2910,7 +2928,7 @@
       <c r="D130" s="4">
         <v>518</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2924,7 +2942,7 @@
       <c r="D131" s="4">
         <v>128</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2938,7 +2956,7 @@
       <c r="D132" s="4">
         <v>360</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2952,7 +2970,7 @@
       <c r="D133" s="4">
         <v>400</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2966,7 +2984,7 @@
       <c r="D134" s="4">
         <v>2150.77</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2980,7 +2998,7 @@
       <c r="D135" s="4">
         <v>1347.36</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2994,7 +3012,7 @@
       <c r="D136" s="4">
         <v>3857.41</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3008,7 +3026,7 @@
       <c r="D137" s="4">
         <v>1975.54</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3022,7 +3040,7 @@
       <c r="D138" s="4">
         <v>816</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3036,7 +3054,7 @@
       <c r="D139" s="4">
         <v>1224</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3050,7 +3068,7 @@
       <c r="D140" s="4">
         <v>918</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3064,7 +3082,7 @@
       <c r="D141" s="4">
         <v>1411.92</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3078,7 +3096,7 @@
       <c r="D142" s="4">
         <v>8384.6</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3092,7 +3110,7 @@
       <c r="D143" s="4">
         <v>11898.5</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3106,7 +3124,7 @@
       <c r="D144" s="4">
         <v>1855</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3120,7 +3138,7 @@
       <c r="D145" s="4">
         <v>2220.8000000000002</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3134,7 +3152,7 @@
       <c r="D146" s="4">
         <v>448</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3148,7 +3166,7 @@
       <c r="D147" s="4">
         <v>1605.6</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3162,7 +3180,7 @@
       <c r="D148" s="4">
         <v>620</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3176,7 +3194,7 @@
       <c r="D149" s="4">
         <v>835</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3190,7 +3208,7 @@
       <c r="D150" s="4">
         <v>1396.8</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3204,7 +3222,7 @@
       <c r="D151" s="4">
         <v>1319.2</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3218,7 +3236,7 @@
       <c r="D152" s="4">
         <v>4219.5</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3232,7 +3250,7 @@
       <c r="D153" s="4">
         <v>1973.8</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3246,7 +3264,7 @@
       <c r="D154" s="4">
         <v>3027.6</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3260,7 +3278,7 @@
       <c r="D155" s="4">
         <v>4488.2</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3274,7 +3292,7 @@
       <c r="D156" s="4">
         <v>2349</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3288,7 +3306,7 @@
       <c r="D157" s="4">
         <v>1922.33</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3302,7 +3320,7 @@
       <c r="D158" s="4">
         <v>815.54</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3316,7 +3334,7 @@
       <c r="D159" s="4">
         <v>1308.24</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E159" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3330,7 +3348,7 @@
       <c r="D160" s="4">
         <v>1838.19</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3344,7 +3362,7 @@
       <c r="D161" s="4">
         <v>2960</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E161" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3358,7 +3376,7 @@
       <c r="D162" s="4">
         <v>1300</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3372,7 +3390,7 @@
       <c r="D163" s="4">
         <v>193.2</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E163" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3386,7 +3404,7 @@
       <c r="D164" s="4">
         <v>865.2</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3400,7 +3418,7 @@
       <c r="D165" s="4">
         <v>493.5</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E165" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3414,7 +3432,7 @@
       <c r="D166" s="4">
         <v>1112.8</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3428,7 +3446,7 @@
       <c r="D167" s="4">
         <v>1027.78</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E167" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3442,7 +3460,7 @@
       <c r="D168" s="4">
         <v>2255.5</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="E168" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3456,7 +3474,7 @@
       <c r="D169" s="4">
         <v>510.9</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="E169" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3470,7 +3488,7 @@
       <c r="D170" s="4">
         <v>384</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3484,7 +3502,7 @@
       <c r="D171" s="4">
         <v>1252.5</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E171" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3498,7 +3516,7 @@
       <c r="D172" s="4">
         <v>1508.4</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E172" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3512,7 +3530,7 @@
       <c r="D173" s="4">
         <v>2683.5</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="E173" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3526,7 +3544,7 @@
       <c r="D174" s="4">
         <v>936</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E174" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3540,7 +3558,7 @@
       <c r="D175" s="4">
         <v>864</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E175" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3554,7 +3572,7 @@
       <c r="D176" s="4">
         <v>1316.4</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="E176" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3568,7 +3586,7 @@
       <c r="D177" s="4">
         <v>5710.08</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3582,7 +3600,7 @@
       <c r="D178" s="4">
         <v>999.01</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="E178" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3596,7 +3614,7 @@
       <c r="D179" s="4">
         <v>1849.7</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="E179" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3610,7 +3628,7 @@
       <c r="D180" s="4">
         <v>2646.08</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="E180" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3624,7 +3642,7 @@
       <c r="D181" s="4">
         <v>1685.36</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="E181" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3638,7 +3656,7 @@
       <c r="D182" s="4">
         <v>5154.8500000000004</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="E182" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3652,7 +3670,7 @@
       <c r="D183" s="4">
         <v>2099.1999999999998</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="E183" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3666,7 +3684,7 @@
       <c r="D184" s="4">
         <v>1500.6</v>
       </c>
-      <c r="E184" s="3" t="s">
+      <c r="E184" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3680,7 +3698,7 @@
       <c r="D185" s="4">
         <v>4029.48</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3694,7 +3712,7 @@
       <c r="D186" s="4">
         <v>1357.44</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="E186" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3708,7 +3726,7 @@
       <c r="D187" s="4">
         <v>3029.25</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E187" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3722,7 +3740,7 @@
       <c r="D188" s="4">
         <v>504</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="E188" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3736,7 +3754,7 @@
       <c r="D189" s="4">
         <v>656.25</v>
       </c>
-      <c r="E189" s="3" t="s">
+      <c r="E189" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3750,7 +3768,7 @@
       <c r="D190" s="4">
         <v>1162.8</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="E190" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3764,7 +3782,7 @@
       <c r="D191" s="4">
         <v>456</v>
       </c>
-      <c r="E191" s="3" t="s">
+      <c r="E191" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3778,7 +3796,7 @@
       <c r="D192" s="4">
         <v>1396.5</v>
       </c>
-      <c r="E192" s="3" t="s">
+      <c r="E192" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3792,7 +3810,7 @@
       <c r="D193" s="4">
         <v>5320</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="E193" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3806,7 +3824,7 @@
       <c r="D194" s="4">
         <v>9116.7999999999993</v>
       </c>
-      <c r="E194" s="3" t="s">
+      <c r="E194" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3820,7 +3838,7 @@
       <c r="D195" s="4">
         <v>5087.5</v>
       </c>
-      <c r="E195" s="3" t="s">
+      <c r="E195" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3834,7 +3852,7 @@
       <c r="D196" s="4">
         <v>7452.5</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="E196" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3848,7 +3866,7 @@
       <c r="D197" s="4">
         <v>11959.75</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="E197" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3862,7 +3880,7 @@
       <c r="D198" s="4">
         <v>87.75</v>
       </c>
-      <c r="E198" s="3" t="s">
+      <c r="E198" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3876,7 +3894,7 @@
       <c r="D199" s="4">
         <v>499.2</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="E199" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3890,7 +3908,7 @@
       <c r="D200" s="4">
         <v>585</v>
       </c>
-      <c r="E200" s="3" t="s">
+      <c r="E200" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3904,7 +3922,7 @@
       <c r="D201" s="4">
         <v>984.75</v>
       </c>
-      <c r="E201" s="3" t="s">
+      <c r="E201" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3918,7 +3936,7 @@
       <c r="D202" s="4">
         <v>1233.8</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="E202" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3932,7 +3950,7 @@
       <c r="D203" s="4">
         <v>1233.8</v>
       </c>
-      <c r="E203" s="3" t="s">
+      <c r="E203" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3946,7 +3964,7 @@
       <c r="D204" s="4">
         <v>214.52</v>
       </c>
-      <c r="E204" s="3" t="s">
+      <c r="E204" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3960,7 +3978,7 @@
       <c r="D205" s="4">
         <v>1508.92</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="E205" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3974,7 +3992,7 @@
       <c r="D206" s="4">
         <v>1646.25</v>
       </c>
-      <c r="E206" s="3" t="s">
+      <c r="E206" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3988,7 +4006,7 @@
       <c r="D207" s="4">
         <v>714</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="E207" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4002,7 +4020,7 @@
       <c r="D208" s="4">
         <v>216</v>
       </c>
-      <c r="E208" s="3" t="s">
+      <c r="E208" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4016,7 +4034,7 @@
       <c r="D209" s="4">
         <v>941.25</v>
       </c>
-      <c r="E209" s="3" t="s">
+      <c r="E209" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4030,7 +4048,7 @@
       <c r="D210" s="4">
         <v>1953.67</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="E210" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4044,7 +4062,7 @@
       <c r="D211" s="4">
         <v>190</v>
       </c>
-      <c r="E211" s="3" t="s">
+      <c r="E211" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4058,7 +4076,7 @@
       <c r="D212" s="4">
         <v>1007</v>
       </c>
-      <c r="E212" s="3" t="s">
+      <c r="E212" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4072,7 +4090,7 @@
       <c r="D213" s="4">
         <v>205.2</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="E213" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4086,7 +4104,7 @@
       <c r="D214" s="4">
         <v>1881</v>
       </c>
-      <c r="E214" s="3" t="s">
+      <c r="E214" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4100,7 +4118,7 @@
       <c r="D215" s="4">
         <v>4105.92</v>
       </c>
-      <c r="E215" s="3" t="s">
+      <c r="E215" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4114,7 +4132,7 @@
       <c r="D216" s="4">
         <v>3556.8</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="E216" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4128,7 +4146,7 @@
       <c r="D217" s="4">
         <v>3310.56</v>
       </c>
-      <c r="E217" s="3" t="s">
+      <c r="E217" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4142,7 +4160,7 @@
       <c r="D218" s="4">
         <v>1037.4000000000001</v>
       </c>
-      <c r="E218" s="3" t="s">
+      <c r="E218" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4156,7 +4174,7 @@
       <c r="D219" s="4">
         <v>179.2</v>
       </c>
-      <c r="E219" s="3" t="s">
+      <c r="E219" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4170,7 +4188,7 @@
       <c r="D220" s="4">
         <v>750.4</v>
       </c>
-      <c r="E220" s="3" t="s">
+      <c r="E220" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4184,7 +4202,7 @@
       <c r="D221" s="4">
         <v>2195</v>
       </c>
-      <c r="E221" s="3" t="s">
+      <c r="E221" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4198,7 +4216,7 @@
       <c r="D222" s="4">
         <v>1756</v>
       </c>
-      <c r="E222" s="3" t="s">
+      <c r="E222" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4212,7 +4230,7 @@
       <c r="D223" s="4">
         <v>5268</v>
       </c>
-      <c r="E223" s="3" t="s">
+      <c r="E223" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4226,7 +4244,7 @@
       <c r="D224" s="4">
         <v>1755</v>
       </c>
-      <c r="E224" s="3" t="s">
+      <c r="E224" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4240,7 +4258,7 @@
       <c r="D225" s="4">
         <v>1062.5</v>
       </c>
-      <c r="E225" s="3" t="s">
+      <c r="E225" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4254,7 +4272,7 @@
       <c r="D226" s="4">
         <v>492.5</v>
       </c>
-      <c r="E226" s="3" t="s">
+      <c r="E226" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4268,7 +4286,7 @@
       <c r="D227" s="4">
         <v>1935</v>
       </c>
-      <c r="E227" s="3" t="s">
+      <c r="E227" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4282,7 +4300,7 @@
       <c r="D228" s="4">
         <v>1267.5</v>
       </c>
-      <c r="E228" s="3" t="s">
+      <c r="E228" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4296,7 +4314,7 @@
       <c r="D229" s="4">
         <v>978.6</v>
       </c>
-      <c r="E229" s="3" t="s">
+      <c r="E229" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4310,7 +4328,7 @@
       <c r="D230" s="4">
         <v>2307.1999999999998</v>
       </c>
-      <c r="E230" s="3" t="s">
+      <c r="E230" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4324,7 +4342,7 @@
       <c r="D231" s="4">
         <v>912.8</v>
       </c>
-      <c r="E231" s="3" t="s">
+      <c r="E231" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4338,7 +4356,7 @@
       <c r="D232" s="4">
         <v>985.6</v>
       </c>
-      <c r="E232" s="3" t="s">
+      <c r="E232" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4352,7 +4370,7 @@
       <c r="D233" s="4">
         <v>4252.5</v>
       </c>
-      <c r="E233" s="3" t="s">
+      <c r="E233" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4366,7 +4384,7 @@
       <c r="D234" s="4">
         <v>1701</v>
       </c>
-      <c r="E234" s="3" t="s">
+      <c r="E234" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4380,7 +4398,7 @@
       <c r="D235" s="4">
         <v>1360.8</v>
       </c>
-      <c r="E235" s="3" t="s">
+      <c r="E235" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4394,7 +4412,7 @@
       <c r="D236" s="4">
         <v>1434</v>
       </c>
-      <c r="E236" s="3" t="s">
+      <c r="E236" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4408,7 +4426,7 @@
       <c r="D237" s="4">
         <v>1733</v>
       </c>
-      <c r="E237" s="3" t="s">
+      <c r="E237" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4422,7 +4440,7 @@
       <c r="D238" s="4">
         <v>1418</v>
       </c>
-      <c r="E238" s="3" t="s">
+      <c r="E238" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4436,7 +4454,7 @@
       <c r="D239" s="4">
         <v>756</v>
       </c>
-      <c r="E239" s="3" t="s">
+      <c r="E239" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4450,7 +4468,7 @@
       <c r="D240" s="4">
         <v>2679</v>
       </c>
-      <c r="E240" s="3" t="s">
+      <c r="E240" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4464,7 +4482,7 @@
       <c r="D241" s="4">
         <v>1510.5</v>
       </c>
-      <c r="E241" s="3" t="s">
+      <c r="E241" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4478,7 +4496,7 @@
       <c r="D242" s="4">
         <v>1881</v>
       </c>
-      <c r="E242" s="3" t="s">
+      <c r="E242" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4492,7 +4510,7 @@
       <c r="D243" s="4">
         <v>3021</v>
       </c>
-      <c r="E243" s="3" t="s">
+      <c r="E243" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4506,7 +4524,7 @@
       <c r="D244" s="4">
         <v>91.8</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="E244" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4520,7 +4538,7 @@
       <c r="D245" s="4">
         <v>1504.8</v>
       </c>
-      <c r="E245" s="3" t="s">
+      <c r="E245" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4534,7 +4552,7 @@
       <c r="D246" s="4">
         <v>823.2</v>
       </c>
-      <c r="E246" s="3" t="s">
+      <c r="E246" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4548,7 +4566,7 @@
       <c r="D247" s="4">
         <v>803.52</v>
       </c>
-      <c r="E247" s="3" t="s">
+      <c r="E247" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4562,7 +4580,7 @@
       <c r="D248" s="4">
         <v>1742.4</v>
       </c>
-      <c r="E248" s="3" t="s">
+      <c r="E248" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4576,7 +4594,7 @@
       <c r="D249" s="4">
         <v>1273.5</v>
       </c>
-      <c r="E249" s="3" t="s">
+      <c r="E249" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4590,7 +4608,7 @@
       <c r="D250" s="4">
         <v>1683</v>
       </c>
-      <c r="E250" s="3" t="s">
+      <c r="E250" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4604,7 +4622,7 @@
       <c r="D251" s="4">
         <v>1008</v>
       </c>
-      <c r="E251" s="3" t="s">
+      <c r="E251" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4618,7 +4636,7 @@
       <c r="D252" s="4">
         <v>5472.3</v>
       </c>
-      <c r="E252" s="3" t="s">
+      <c r="E252" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4632,7 +4650,7 @@
       <c r="D253" s="4">
         <v>4547.92</v>
       </c>
-      <c r="E253" s="3" t="s">
+      <c r="E253" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4646,7 +4664,7 @@
       <c r="D254" s="4">
         <v>4728</v>
       </c>
-      <c r="E254" s="3" t="s">
+      <c r="E254" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4660,7 +4678,7 @@
       <c r="D255" s="4">
         <v>6014.6</v>
       </c>
-      <c r="E255" s="3" t="s">
+      <c r="E255" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4674,7 +4692,7 @@
       <c r="D256" s="4">
         <v>349.6</v>
       </c>
-      <c r="E256" s="3" t="s">
+      <c r="E256" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4688,7 +4706,7 @@
       <c r="D257" s="4">
         <v>204.7</v>
       </c>
-      <c r="E257" s="3" t="s">
+      <c r="E257" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4702,7 +4720,7 @@
       <c r="D258" s="4">
         <v>943.89</v>
       </c>
-      <c r="E258" s="3" t="s">
+      <c r="E258" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4716,7 +4734,7 @@
       <c r="D259" s="4">
         <v>841.8</v>
       </c>
-      <c r="E259" s="3" t="s">
+      <c r="E259" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4730,7 +4748,7 @@
       <c r="D260" s="4">
         <v>5702.4</v>
       </c>
-      <c r="E260" s="3" t="s">
+      <c r="E260" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4744,7 +4762,7 @@
       <c r="D261" s="4">
         <v>8912.8799999999992</v>
       </c>
-      <c r="E261" s="3" t="s">
+      <c r="E261" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4758,7 +4776,7 @@
       <c r="D262" s="4">
         <v>14037.79</v>
       </c>
-      <c r="E262" s="3" t="s">
+      <c r="E262" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4772,7 +4790,7 @@
       <c r="D263" s="4">
         <v>4456.4399999999996</v>
       </c>
-      <c r="E263" s="3" t="s">
+      <c r="E263" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4786,7 +4804,7 @@
       <c r="D264" s="4">
         <v>470.81</v>
       </c>
-      <c r="E264" s="3" t="s">
+      <c r="E264" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4800,7 +4818,7 @@
       <c r="D265" s="4">
         <v>1866.97</v>
       </c>
-      <c r="E265" s="3" t="s">
+      <c r="E265" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4814,7 +4832,7 @@
       <c r="D266" s="4">
         <v>2185.5</v>
       </c>
-      <c r="E266" s="3" t="s">
+      <c r="E266" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4828,7 +4846,7 @@
       <c r="D267" s="4">
         <v>2018.1</v>
       </c>
-      <c r="E267" s="3" t="s">
+      <c r="E267" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4842,7 +4860,7 @@
       <c r="D268" s="4">
         <v>490.21</v>
       </c>
-      <c r="E268" s="3" t="s">
+      <c r="E268" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4856,7 +4874,7 @@
       <c r="D269" s="4">
         <v>966.42</v>
       </c>
-      <c r="E269" s="3" t="s">
+      <c r="E269" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4870,7 +4888,7 @@
       <c r="D270" s="4">
         <v>978.93</v>
       </c>
-      <c r="E270" s="3" t="s">
+      <c r="E270" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4884,7 +4902,7 @@
       <c r="D271" s="4">
         <v>666.03</v>
       </c>
-      <c r="E271" s="3" t="s">
+      <c r="E271" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4898,7 +4916,7 @@
       <c r="D272" s="4">
         <v>778.5</v>
       </c>
-      <c r="E272" s="3" t="s">
+      <c r="E272" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4912,7 +4930,7 @@
       <c r="D273" s="4">
         <v>423</v>
       </c>
-      <c r="E273" s="3" t="s">
+      <c r="E273" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4926,7 +4944,7 @@
       <c r="D274" s="4">
         <v>979.2</v>
       </c>
-      <c r="E274" s="3" t="s">
+      <c r="E274" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4940,7 +4958,7 @@
       <c r="D275" s="4">
         <v>396</v>
       </c>
-      <c r="E275" s="3" t="s">
+      <c r="E275" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4954,7 +4972,7 @@
       <c r="D276" s="4">
         <v>1084.8</v>
       </c>
-      <c r="E276" s="3" t="s">
+      <c r="E276" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4968,7 +4986,7 @@
       <c r="D277" s="4">
         <v>3826.5</v>
       </c>
-      <c r="E277" s="3" t="s">
+      <c r="E277" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4982,7 +5000,7 @@
       <c r="D278" s="4">
         <v>2700</v>
       </c>
-      <c r="E278" s="3" t="s">
+      <c r="E278" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4996,7 +5014,7 @@
       <c r="D279" s="4">
         <v>1575</v>
       </c>
-      <c r="E279" s="3" t="s">
+      <c r="E279" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5010,7 +5028,7 @@
       <c r="D280" s="4">
         <v>845</v>
       </c>
-      <c r="E280" s="3" t="s">
+      <c r="E280" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5024,7 +5042,7 @@
       <c r="D281" s="4">
         <v>942.5</v>
       </c>
-      <c r="E281" s="3" t="s">
+      <c r="E281" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5038,7 +5056,7 @@
       <c r="D282" s="4">
         <v>385.94</v>
       </c>
-      <c r="E282" s="3" t="s">
+      <c r="E282" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5052,7 +5070,7 @@
       <c r="D283" s="4">
         <v>2590.1</v>
       </c>
-      <c r="E283" s="3" t="s">
+      <c r="E283" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5066,7 +5084,7 @@
       <c r="D284" s="4">
         <v>842.88</v>
       </c>
-      <c r="E284" s="3" t="s">
+      <c r="E284" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5080,7 +5098,7 @@
       <c r="D285" s="4">
         <v>263.39999999999998</v>
       </c>
-      <c r="E285" s="3" t="s">
+      <c r="E285" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5094,7 +5112,7 @@
       <c r="D286" s="4">
         <v>3202.87</v>
       </c>
-      <c r="E286" s="3" t="s">
+      <c r="E286" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5108,7 +5126,7 @@
       <c r="D287" s="4">
         <v>2912.7</v>
       </c>
-      <c r="E287" s="3" t="s">
+      <c r="E287" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5122,7 +5140,7 @@
       <c r="D288" s="4">
         <v>1735.65</v>
       </c>
-      <c r="E288" s="3" t="s">
+      <c r="E288" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5136,7 +5154,7 @@
       <c r="D289" s="4">
         <v>1679.12</v>
       </c>
-      <c r="E289" s="3" t="s">
+      <c r="E289" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5150,7 +5168,7 @@
       <c r="D290" s="4">
         <v>798</v>
       </c>
-      <c r="E290" s="3" t="s">
+      <c r="E290" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5164,7 +5182,7 @@
       <c r="D291" s="4">
         <v>1159</v>
       </c>
-      <c r="E291" s="3" t="s">
+      <c r="E291" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5178,7 +5196,7 @@
       <c r="D292" s="4">
         <v>668.8</v>
       </c>
-      <c r="E292" s="3" t="s">
+      <c r="E292" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5192,7 +5210,7 @@
       <c r="D293" s="4">
         <v>817</v>
       </c>
-      <c r="E293" s="3" t="s">
+      <c r="E293" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5206,7 +5224,7 @@
       <c r="D294" s="4">
         <v>285.95</v>
       </c>
-      <c r="E294" s="3" t="s">
+      <c r="E294" s="9" t="s">
         <v>7</v>
       </c>
     </row>
